--- a/excel_file/case.xlsx
+++ b/excel_file/case.xlsx
@@ -26,18 +26,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00AACF91"/>
-        <bgColor rgb="00AACF91"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -52,9 +46,8 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -352,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -361,15 +354,169 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="n"/>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>层级关系</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>特性名称</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>特性编号</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>是否为特性</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>用例名称</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>用例编号</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>测试阶段</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>用例级别</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>预置条件</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>测试步骤</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>预期结果</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>用例说明</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>用例标签</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>用例活动名</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>测试类型</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Depth</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Feature_Name</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Feature_Number</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>isFeature</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Testcase_Name</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Testcase_Number</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Testcase_Stage</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Testcase_Level</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Testcase_PrepareCondition</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Testcase_TestSteps</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Testcase_Excepted</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Testcase_Remark</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Testcase_Tags</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Testcase_Activity</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Testcase_TestType </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="inlineStr">
         <is>
           <t>参数校验</t>
         </is>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="b">
-        <v>0</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/excel_file/case.xlsx
+++ b/excel_file/case.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,7 +503,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Testcase_TestType </t>
+          <t>Testcase_TestType</t>
         </is>
       </c>
     </row>
@@ -516,6 +516,1978 @@
       <c r="D3" t="inlineStr">
         <is>
           <t>false</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>验证选填参数[name]的值为空</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>post_create_student_name_not-required-null</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Beta</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>level 0</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>①[新建学生信息]接口服务已部署完成。</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>①按照备注栏中的测试数据传入参数,校验参数取值:
+ name=我是选填参数的非空校验
+②对[新建学生信息]接口发送请求。</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>①校验响应状态码:200
+②校验响应体:</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>{
+  "name": "我是选填参数的非空校验",
+  "sex": 1,
+  "age": 20,
+  "email": "zhangsan@qq.com",
+  "mark": "中国党员",
+  "mobile": "17358134575",
+  "birth": "1998-01-12"
+}</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>合法请求</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>接口功能测试</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>API</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>验证[name]参数的长度为[31]个字符(最大边界+1)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>post_create_student_name_str-max-bound-add1</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Beta</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>level 2</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>①[新建学生信息]接口服务已部署完成。</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>①按照备注栏中的测试数据传入参数,校验参数取值:
+ name=我是最大边界值-1
+②对[新建学生信息]接口发送请求。</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>①校验响应状态码:
+②校验响应体:</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>{
+  "name": "我是最大边界值-1",
+  "sex": 1,
+  "age": 20,
+  "email": "zhangsan@qq.com",
+  "mark": "中国党员",
+  "mobile": "17358134575",
+  "birth": "1998-01-12"
+}</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>非法请求</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>接口功能测试</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>API</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>验证[name]参数的长度为[30]个字符(最大边界)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>post_create_student_name_str-max-bound</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Beta</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>level 0</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>①[新建学生信息]接口服务已部署完成。</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>①按照备注栏中的测试数据传入参数,校验参数取值:
+ name=我是最大边界值
+②对[新建学生信息]接口发送请求。</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>①校验响应状态码:200
+②校验响应体:</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>{
+  "name": "我是最大边界值",
+  "sex": 1,
+  "age": 20,
+  "email": "zhangsan@qq.com",
+  "mark": "中国党员",
+  "mobile": "17358134575",
+  "birth": "1998-01-12"
+}</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>合法请求</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>接口功能测试</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>API</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>验证必填参数[name]的值为空</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>post_create_student_name_is-required-null</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Beta</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>level 1</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>①[新建学生信息]接口服务已部署完成。</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>①按照备注栏中的测试数据传入参数,校验参数取值:
+ name=我是必填参数的非空校验
+②对[新建学生信息]接口发送请求。</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>①校验响应状态码:
+②校验响应体:</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>{
+  "name": "我是必填参数的非空校验",
+  "sex": 1,
+  "age": 20,
+  "email": "zhangsan@qq.com",
+  "mark": "中国党员",
+  "mobile": "17358134575",
+  "birth": "1998-01-12"
+}</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>非法请求</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>接口功能测试</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>API</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>验证[name]参数的长度为[31]个字符(最大边界+1)</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>post_create_student_name_str-max-bound-add1</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Beta</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>level 2</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>①[新建学生信息]接口服务已部署完成。</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>①按照备注栏中的测试数据传入参数,校验参数取值:
+ name=我是最大边界值-1
+②对[新建学生信息]接口发送请求。</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>①校验响应状态码:
+②校验响应体:</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>{
+  "name": "我是最大边界值-1",
+  "sex": 1,
+  "age": 20,
+  "email": "zhangsan@qq.com",
+  "mark": "中国党员",
+  "mobile": "17358134575",
+  "birth": "1998-01-12"
+}</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>非法请求</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>接口功能测试</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>API</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>验证[name]参数的长度为[30]个字符(最大边界)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>post_create_student_name_str-max-bound</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Beta</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>level 0</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>①[新建学生信息]接口服务已部署完成。</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>①按照备注栏中的测试数据传入参数,校验参数取值:
+ name=我是最大边界值
+②对[新建学生信息]接口发送请求。</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>①校验响应状态码:200
+②校验响应体:</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>{
+  "name": "我是最大边界值",
+  "sex": 1,
+  "age": 20,
+  "email": "zhangsan@qq.com",
+  "mark": "中国党员",
+  "mobile": "17358134575",
+  "birth": "1998-01-12"
+}</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>合法请求</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>接口功能测试</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>API</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>验证必填参数[email]的值为空</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>post_create_student_email_is-required-null</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Beta</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>level 1</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>①[新建学生信息]接口服务已部署完成。</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>①按照备注栏中的测试数据传入参数,校验参数取值:
+ email=我是必填参数的非空校验
+②对[新建学生信息]接口发送请求。</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>①校验响应状态码:
+②校验响应体:</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>{
+  "name": "张三",
+  "sex": 1,
+  "age": 20,
+  "email": "我是必填参数的非空校验",
+  "mark": "中国党员",
+  "mobile": "17358134575",
+  "birth": "1998-01-12"
+}</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>非法请求</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>接口功能测试</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>API</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>验证[email]参数的长度为[31]个字符(最大边界+1)</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>post_create_student_email_str-max-bound-add1</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Beta</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>level 2</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>①[新建学生信息]接口服务已部署完成。</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>①按照备注栏中的测试数据传入参数,校验参数取值:
+ email=我是最大边界值-1
+②对[新建学生信息]接口发送请求。</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>①校验响应状态码:
+②校验响应体:</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>{
+  "name": "张三",
+  "sex": 1,
+  "age": 20,
+  "email": "我是最大边界值-1",
+  "mark": "中国党员",
+  "mobile": "17358134575",
+  "birth": "1998-01-12"
+}</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>非法请求</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>接口功能测试</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>API</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>验证[email]参数的长度为[1]个字符(最小边界)</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>post_create_student_email_str-min-bound</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Beta</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>level 0</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>①[新建学生信息]接口服务已部署完成。</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>①按照备注栏中的测试数据传入参数,校验参数取值:
+ email=我是最小边界值
+②对[新建学生信息]接口发送请求。</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>①校验响应状态码:200
+②校验响应体:</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>{
+  "name": "张三",
+  "sex": 1,
+  "age": 20,
+  "email": "我是最小边界值",
+  "mark": "中国党员",
+  "mobile": "17358134575",
+  "birth": "1998-01-12"
+}</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>合法请求</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>接口功能测试</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>API</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>验证[email]参数的长度为[30]个字符(最大边界)</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>post_create_student_email_str-max-bound</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Beta</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>level 0</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>①[新建学生信息]接口服务已部署完成。</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>①按照备注栏中的测试数据传入参数,校验参数取值:
+ email=我是最大边界值
+②对[新建学生信息]接口发送请求。</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>①校验响应状态码:200
+②校验响应体:</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>{
+  "name": "张三",
+  "sex": 1,
+  "age": 20,
+  "email": "我是最大边界值",
+  "mark": "中国党员",
+  "mobile": "17358134575",
+  "birth": "1998-01-12"
+}</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>合法请求</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>接口功能测试</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>API</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>验证选填参数[email]的值为空</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>post_create_student_email_not-required-null</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Beta</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>level 0</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>①[新建学生信息]接口服务已部署完成。</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>①按照备注栏中的测试数据传入参数,校验参数取值:
+ email=我是选填参数的非空校验
+②对[新建学生信息]接口发送请求。</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>①校验响应状态码:200
+②校验响应体:</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>{
+  "name": "张三",
+  "sex": 1,
+  "age": 20,
+  "email": "我是选填参数的非空校验",
+  "mark": "中国党员",
+  "mobile": "17358134575",
+  "birth": "1998-01-12"
+}</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>合法请求</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>接口功能测试</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>API</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>验证[email]参数的长度为[31]个字符(最大边界+1)</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>post_create_student_email_str-max-bound-add1</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Beta</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>level 2</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>①[新建学生信息]接口服务已部署完成。</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>①按照备注栏中的测试数据传入参数,校验参数取值:
+ email=我是最大边界值-1
+②对[新建学生信息]接口发送请求。</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>①校验响应状态码:
+②校验响应体:</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>{
+  "name": "张三",
+  "sex": 1,
+  "age": 20,
+  "email": "我是最大边界值-1",
+  "mark": "中国党员",
+  "mobile": "17358134575",
+  "birth": "1998-01-12"
+}</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>非法请求</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>接口功能测试</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>API</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>验证[email]参数的长度为[1]个字符(最小边界)</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>post_create_student_email_str-min-bound</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Beta</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>level 0</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>①[新建学生信息]接口服务已部署完成。</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>①按照备注栏中的测试数据传入参数,校验参数取值:
+ email=我是最小边界值
+②对[新建学生信息]接口发送请求。</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>①校验响应状态码:200
+②校验响应体:</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>{
+  "name": "张三",
+  "sex": 1,
+  "age": 20,
+  "email": "我是最小边界值",
+  "mark": "中国党员",
+  "mobile": "17358134575",
+  "birth": "1998-01-12"
+}</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>合法请求</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>接口功能测试</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>API</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>验证[email]参数的长度为[30]个字符(最大边界)</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>post_create_student_email_str-max-bound</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Beta</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>level 0</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>①[新建学生信息]接口服务已部署完成。</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>①按照备注栏中的测试数据传入参数,校验参数取值:
+ email=我是最大边界值
+②对[新建学生信息]接口发送请求。</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>①校验响应状态码:200
+②校验响应体:</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>{
+  "name": "张三",
+  "sex": 1,
+  "age": 20,
+  "email": "我是最大边界值",
+  "mark": "中国党员",
+  "mobile": "17358134575",
+  "birth": "1998-01-12"
+}</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>合法请求</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>接口功能测试</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>API</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>验证必填参数[mark]的值为空</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>post_create_student_mark_is-required-null</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Beta</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>level 1</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>①[新建学生信息]接口服务已部署完成。</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>①按照备注栏中的测试数据传入参数,校验参数取值:
+ mark=我是必填参数的非空校验
+②对[新建学生信息]接口发送请求。</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>①校验响应状态码:
+②校验响应体:</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>{
+  "name": "张三",
+  "sex": 1,
+  "age": 20,
+  "email": "zhangsan@qq.com",
+  "mark": "我是必填参数的非空校验",
+  "mobile": "17358134575",
+  "birth": "1998-01-12"
+}</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>非法请求</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>接口功能测试</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>API</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>验证[mark]参数的长度为[31]个字符(最大边界+1)</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>post_create_student_mark_str-max-bound-add1</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Beta</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>level 2</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>①[新建学生信息]接口服务已部署完成。</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>①按照备注栏中的测试数据传入参数,校验参数取值:
+ mark=我是最大边界值-1
+②对[新建学生信息]接口发送请求。</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>①校验响应状态码:
+②校验响应体:</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>{
+  "name": "张三",
+  "sex": 1,
+  "age": 20,
+  "email": "zhangsan@qq.com",
+  "mark": "我是最大边界值-1",
+  "mobile": "17358134575",
+  "birth": "1998-01-12"
+}</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>非法请求</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>接口功能测试</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>API</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>验证[mark]参数的长度为[1]个字符(最小边界-1)</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>post_create_student_mark_str-min-bound-sub1</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Beta</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>level 1</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>①[新建学生信息]接口服务已部署完成。</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>①按照备注栏中的测试数据传入参数,校验参数取值:
+ mark=我是最小边界值-1
+②对[新建学生信息]接口发送请求。</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>①校验响应状态码:
+②校验响应体:</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>{
+  "name": "张三",
+  "sex": 1,
+  "age": 20,
+  "email": "zhangsan@qq.com",
+  "mark": "我是最小边界值-1",
+  "mobile": "17358134575",
+  "birth": "1998-01-12"
+}</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>非法请求</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>接口功能测试</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>API</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>验证[mark]参数的长度为[2]个字符(最小边界)</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>post_create_student_mark_str-min-bound</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Beta</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>level 0</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>①[新建学生信息]接口服务已部署完成。</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>①按照备注栏中的测试数据传入参数,校验参数取值:
+ mark=我是最小边界值
+②对[新建学生信息]接口发送请求。</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>①校验响应状态码:200
+②校验响应体:</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>{
+  "name": "张三",
+  "sex": 1,
+  "age": 20,
+  "email": "zhangsan@qq.com",
+  "mark": "我是最小边界值",
+  "mobile": "17358134575",
+  "birth": "1998-01-12"
+}</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>合法请求</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>接口功能测试</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>API</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>验证[mark]参数的长度为[30]个字符(最大边界)</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>post_create_student_mark_str-max-bound</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Beta</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>level 0</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>①[新建学生信息]接口服务已部署完成。</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>①按照备注栏中的测试数据传入参数,校验参数取值:
+ mark=我是最大边界值
+②对[新建学生信息]接口发送请求。</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>①校验响应状态码:200
+②校验响应体:</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>{
+  "name": "张三",
+  "sex": 1,
+  "age": 20,
+  "email": "zhangsan@qq.com",
+  "mark": "我是最大边界值",
+  "mobile": "17358134575",
+  "birth": "1998-01-12"
+}</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>合法请求</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>接口功能测试</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>API</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>验证选填参数[mark]的值为空</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>post_create_student_mark_not-required-null</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Beta</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>level 0</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>①[新建学生信息]接口服务已部署完成。</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>①按照备注栏中的测试数据传入参数,校验参数取值:
+ mark=我是选填参数的非空校验
+②对[新建学生信息]接口发送请求。</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>①校验响应状态码:200
+②校验响应体:</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>{
+  "name": "张三",
+  "sex": 1,
+  "age": 20,
+  "email": "zhangsan@qq.com",
+  "mark": "我是选填参数的非空校验",
+  "mobile": "17358134575",
+  "birth": "1998-01-12"
+}</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>合法请求</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>接口功能测试</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>API</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>验证[mark]参数的长度为[31]个字符(最大边界+1)</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>post_create_student_mark_str-max-bound-add1</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Beta</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>level 2</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>①[新建学生信息]接口服务已部署完成。</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>①按照备注栏中的测试数据传入参数,校验参数取值:
+ mark=我是最大边界值-1
+②对[新建学生信息]接口发送请求。</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>①校验响应状态码:
+②校验响应体:</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>{
+  "name": "张三",
+  "sex": 1,
+  "age": 20,
+  "email": "zhangsan@qq.com",
+  "mark": "我是最大边界值-1",
+  "mobile": "17358134575",
+  "birth": "1998-01-12"
+}</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>非法请求</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>接口功能测试</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>API</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>验证[mark]参数的长度为[1]个字符(最小边界-1)</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>post_create_student_mark_str-min-bound-sub1</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Beta</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>level 1</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>①[新建学生信息]接口服务已部署完成。</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>①按照备注栏中的测试数据传入参数,校验参数取值:
+ mark=我是最小边界值-1
+②对[新建学生信息]接口发送请求。</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>①校验响应状态码:
+②校验响应体:</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>{
+  "name": "张三",
+  "sex": 1,
+  "age": 20,
+  "email": "zhangsan@qq.com",
+  "mark": "我是最小边界值-1",
+  "mobile": "17358134575",
+  "birth": "1998-01-12"
+}</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>非法请求</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>接口功能测试</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>API</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>验证[mark]参数的长度为[2]个字符(最小边界)</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>post_create_student_mark_str-min-bound</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Beta</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>level 0</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>①[新建学生信息]接口服务已部署完成。</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>①按照备注栏中的测试数据传入参数,校验参数取值:
+ mark=我是最小边界值
+②对[新建学生信息]接口发送请求。</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>①校验响应状态码:200
+②校验响应体:</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>{
+  "name": "张三",
+  "sex": 1,
+  "age": 20,
+  "email": "zhangsan@qq.com",
+  "mark": "我是最小边界值",
+  "mobile": "17358134575",
+  "birth": "1998-01-12"
+}</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>合法请求</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>接口功能测试</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>API</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>验证[mark]参数的长度为[30]个字符(最大边界)</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>post_create_student_mark_str-max-bound</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Beta</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>level 0</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>①[新建学生信息]接口服务已部署完成。</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>①按照备注栏中的测试数据传入参数,校验参数取值:
+ mark=我是最大边界值
+②对[新建学生信息]接口发送请求。</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>①校验响应状态码:200
+②校验响应体:</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>{
+  "name": "张三",
+  "sex": 1,
+  "age": 20,
+  "email": "zhangsan@qq.com",
+  "mark": "我是最大边界值",
+  "mobile": "17358134575",
+  "birth": "1998-01-12"
+}</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>合法请求</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>接口功能测试</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>API</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>验证选填参数[mark]的值为空</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>post_create_student_mark_not-required-null</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Beta</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>level 0</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>①[新建学生信息]接口服务已部署完成。</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>①按照备注栏中的测试数据传入参数,校验参数取值:
+ mark=我是选填参数的非空校验
+②对[新建学生信息]接口发送请求。</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>①校验响应状态码:200
+②校验响应体:</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>{
+  "name": "张三",
+  "sex": 1,
+  "age": 20,
+  "email": "zhangsan@qq.com",
+  "mark": "我是选填参数的非空校验",
+  "mobile": "17358134575",
+  "birth": "1998-01-12"
+}</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>合法请求</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>接口功能测试</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>API</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>验证选填参数[mark]的值为空</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>post_create_student_mark_not-required-null</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Beta</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>level 0</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>①[新建学生信息]接口服务已部署完成。</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>①按照备注栏中的测试数据传入参数,校验参数取值:
+ mark=我是选填参数的非空校验
+②对[新建学生信息]接口发送请求。</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>①校验响应状态码:200
+②校验响应体:</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>{
+  "name": "张三",
+  "sex": 1,
+  "age": 20,
+  "email": "zhangsan@qq.com",
+  "mark": "我是选填参数的非空校验",
+  "mobile": "17358134575",
+  "birth": "1998-01-12"
+}</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>合法请求</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>接口功能测试</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>API</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>验证[mark]参数的长度为[31]个字符(最大边界+1)</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>post_create_student_mark_str-max-bound-add1</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Beta</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>level 2</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>①[新建学生信息]接口服务已部署完成。</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>①按照备注栏中的测试数据传入参数,校验参数取值:
+ mark=我是最大边界值-1
+②对[新建学生信息]接口发送请求。</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>①校验响应状态码:
+②校验响应体:</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>{
+  "name": "张三",
+  "sex": 1,
+  "age": 20,
+  "email": "zhangsan@qq.com",
+  "mark": "我是最大边界值-1",
+  "mobile": "17358134575",
+  "birth": "1998-01-12"
+}</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>非法请求</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>接口功能测试</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>API</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>验证[mark]参数的长度为[29]个字符(最小边界-1)</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>post_create_student_mark_str-min-bound-sub1</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Beta</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>level 1</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>①[新建学生信息]接口服务已部署完成。</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>①按照备注栏中的测试数据传入参数,校验参数取值:
+ mark=我是最小边界值-1
+②对[新建学生信息]接口发送请求。</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>①校验响应状态码:
+②校验响应体:</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>{
+  "name": "张三",
+  "sex": 1,
+  "age": 20,
+  "email": "zhangsan@qq.com",
+  "mark": "我是最小边界值-1",
+  "mobile": "17358134575",
+  "birth": "1998-01-12"
+}</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>非法请求</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>接口功能测试</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>API</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>验证[mark]参数的长度为[30]个字符(最大最小边界相等)</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>post_create_student_mark_str-bound-value</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Beta</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>level 0</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>①[新建学生信息]接口服务已部署完成。</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>①按照备注栏中的测试数据传入参数,校验参数取值:
+ mark=我是边界值
+②对[新建学生信息]接口发送请求。</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>①校验响应状态码:200
+②校验响应体:</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>{
+  "name": "张三",
+  "sex": 1,
+  "age": 20,
+  "email": "zhangsan@qq.com",
+  "mark": "我是边界值",
+  "mobile": "17358134575",
+  "birth": "1998-01-12"
+}</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>合法请求</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>接口功能测试</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>API</t>
         </is>
       </c>
     </row>

--- a/excel_file/case.xlsx
+++ b/excel_file/case.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2222,43 +2222,315 @@
     <row r="29">
       <c r="E29" t="inlineStr">
         <is>
+          <t>验证[mark]参数的长度为[31]个字符(最大边界+1)</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>post_create_student_mark_str-max-bound-add1</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Beta</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>level 2</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>①[新建学生信息]接口服务已部署完成。</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>①按照备注栏中的测试数据传入参数,校验参数取值:
+ mark=我是最大边界值-1
+②对[新建学生信息]接口发送请求。</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>①校验响应状态码:
+②校验响应体:</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>{
+  "name": "张三",
+  "sex": 1,
+  "age": 20,
+  "email": "zhangsan@qq.com",
+  "mark": "我是最大边界值-1",
+  "mobile": "17358134575",
+  "birth": "1998-01-12"
+}</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>非法请求</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>接口功能测试</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>API</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>验证[mark]参数的长度为[15]个字符(最小边界-1)</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>post_create_student_mark_str-min-bound-sub1</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Beta</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>level 1</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>①[新建学生信息]接口服务已部署完成。</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>①按照备注栏中的测试数据传入参数,校验参数取值:
+ mark=我是最小边界值-1
+②对[新建学生信息]接口发送请求。</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>①校验响应状态码:
+②校验响应体:</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>{
+  "name": "张三",
+  "sex": 1,
+  "age": 20,
+  "email": "zhangsan@qq.com",
+  "mark": "我是最小边界值-1",
+  "mobile": "17358134575",
+  "birth": "1998-01-12"
+}</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>非法请求</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>接口功能测试</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>API</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>验证[mark]参数的长度为[16]个字符(最小边界)</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>post_create_student_mark_str-min-bound</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Beta</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>level 0</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>①[新建学生信息]接口服务已部署完成。</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>①按照备注栏中的测试数据传入参数,校验参数取值:
+ mark=我是最小边界值
+②对[新建学生信息]接口发送请求。</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>①校验响应状态码:200
+②校验响应体:</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>{
+  "name": "张三",
+  "sex": 1,
+  "age": 20,
+  "email": "zhangsan@qq.com",
+  "mark": "我是最小边界值",
+  "mobile": "17358134575",
+  "birth": "1998-01-12"
+}</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>合法请求</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>接口功能测试</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>API</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>验证[mark]参数的长度为[30]个字符(最大边界)</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>post_create_student_mark_str-max-bound</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Beta</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>level 0</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>①[新建学生信息]接口服务已部署完成。</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>①按照备注栏中的测试数据传入参数,校验参数取值:
+ mark=我是最大边界值
+②对[新建学生信息]接口发送请求。</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>①校验响应状态码:200
+②校验响应体:</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>{
+  "name": "张三",
+  "sex": 1,
+  "age": 20,
+  "email": "zhangsan@qq.com",
+  "mark": "我是最大边界值",
+  "mobile": "17358134575",
+  "birth": "1998-01-12"
+}</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>合法请求</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>接口功能测试</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>API</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="E33" t="inlineStr">
+        <is>
           <t>验证选填参数[mark]的值为空</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>post_create_student_mark_not-required-null</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>Beta</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Beta</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
         <is>
           <t>level 0</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>①[新建学生信息]接口服务已部署完成。</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>①[新建学生信息]接口服务已部署完成。</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
         <is>
           <t>①按照备注栏中的测试数据传入参数,校验参数取值:
  mark=我是选填参数的非空校验
 ②对[新建学生信息]接口发送请求。</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>①校验响应状态码:200
 ②校验响应体:</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="L33" t="inlineStr">
         <is>
           <t>{
   "name": "张三",
@@ -2271,62 +2543,62 @@
 }</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr">
+      <c r="M33" t="inlineStr">
         <is>
           <t>合法请求</t>
         </is>
       </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>接口功能测试</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>API</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="E30" t="inlineStr">
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>接口功能测试</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>API</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="E34" t="inlineStr">
         <is>
           <t>验证[mark]参数的长度为[31]个字符(最大边界+1)</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>post_create_student_mark_str-max-bound-add1</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>Beta</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Beta</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
         <is>
           <t>level 2</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>①[新建学生信息]接口服务已部署完成。</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>①[新建学生信息]接口服务已部署完成。</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
         <is>
           <t>①按照备注栏中的测试数据传入参数,校验参数取值:
  mark=我是最大边界值-1
 ②对[新建学生信息]接口发送请求。</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>①校验响应状态码:
 ②校验响应体:</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="L34" t="inlineStr">
         <is>
           <t>{
   "name": "张三",
@@ -2339,62 +2611,62 @@
 }</t>
         </is>
       </c>
-      <c r="M30" t="inlineStr">
+      <c r="M34" t="inlineStr">
         <is>
           <t>非法请求</t>
         </is>
       </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>接口功能测试</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>API</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="E31" t="inlineStr">
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>接口功能测试</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>API</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="E35" t="inlineStr">
         <is>
           <t>验证[mark]参数的长度为[29]个字符(最小边界-1)</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>post_create_student_mark_str-min-bound-sub1</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>Beta</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Beta</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
         <is>
           <t>level 1</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>①[新建学生信息]接口服务已部署完成。</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>①[新建学生信息]接口服务已部署完成。</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
         <is>
           <t>①按照备注栏中的测试数据传入参数,校验参数取值:
  mark=我是最小边界值-1
 ②对[新建学生信息]接口发送请求。</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>①校验响应状态码:
 ②校验响应体:</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="L35" t="inlineStr">
         <is>
           <t>{
   "name": "张三",
@@ -2407,62 +2679,62 @@
 }</t>
         </is>
       </c>
-      <c r="M31" t="inlineStr">
+      <c r="M35" t="inlineStr">
         <is>
           <t>非法请求</t>
         </is>
       </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>接口功能测试</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>API</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="E32" t="inlineStr">
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>接口功能测试</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>API</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="E36" t="inlineStr">
         <is>
           <t>验证[mark]参数的长度为[30]个字符(最大最小边界相等)</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>post_create_student_mark_str-bound-value</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>Beta</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Beta</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
         <is>
           <t>level 0</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>①[新建学生信息]接口服务已部署完成。</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>①[新建学生信息]接口服务已部署完成。</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
         <is>
           <t>①按照备注栏中的测试数据传入参数,校验参数取值:
  mark=我是边界值
 ②对[新建学生信息]接口发送请求。</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>①校验响应状态码:200
 ②校验响应体:</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="L36" t="inlineStr">
         <is>
           <t>{
   "name": "张三",
@@ -2475,17 +2747,17 @@
 }</t>
         </is>
       </c>
-      <c r="M32" t="inlineStr">
+      <c r="M36" t="inlineStr">
         <is>
           <t>合法请求</t>
         </is>
       </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>接口功能测试</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>接口功能测试</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
         <is>
           <t>API</t>
         </is>

--- a/excel_file/case.xlsx
+++ b/excel_file/case.xlsx
@@ -548,7 +548,7 @@
       <c r="J4" t="inlineStr">
         <is>
           <t>①按照备注栏中的测试数据传入参数,校验参数取值:
- name=我是选填参数的非空校验
+ name=
 ②对[新建学生信息]接口发送请求。</t>
         </is>
       </c>
@@ -561,7 +561,7 @@
       <c r="L4" t="inlineStr">
         <is>
           <t>{
-  "name": "我是选填参数的非空校验",
+  "name": "",
   "sex": 1,
   "age": 20,
   "email": "zhangsan@qq.com",
@@ -752,7 +752,7 @@
       <c r="J7" t="inlineStr">
         <is>
           <t>①按照备注栏中的测试数据传入参数,校验参数取值:
- name=我是必填参数的非空校验
+ name=
 ②对[新建学生信息]接口发送请求。</t>
         </is>
       </c>
@@ -765,7 +765,7 @@
       <c r="L7" t="inlineStr">
         <is>
           <t>{
-  "name": "我是必填参数的非空校验",
+  "name": "",
   "sex": 1,
   "age": 20,
   "email": "zhangsan@qq.com",
@@ -956,7 +956,7 @@
       <c r="J10" t="inlineStr">
         <is>
           <t>①按照备注栏中的测试数据传入参数,校验参数取值:
- email=我是必填参数的非空校验
+ email=
 ②对[新建学生信息]接口发送请求。</t>
         </is>
       </c>
@@ -972,7 +972,7 @@
   "name": "张三",
   "sex": 1,
   "age": 20,
-  "email": "我是必填参数的非空校验",
+  "email": "",
   "mark": "中国党员",
   "mobile": "17358134575",
   "birth": "1998-01-12"
@@ -1228,7 +1228,7 @@
       <c r="J14" t="inlineStr">
         <is>
           <t>①按照备注栏中的测试数据传入参数,校验参数取值:
- email=我是选填参数的非空校验
+ email=
 ②对[新建学生信息]接口发送请求。</t>
         </is>
       </c>
@@ -1244,7 +1244,7 @@
   "name": "张三",
   "sex": 1,
   "age": 20,
-  "email": "我是选填参数的非空校验",
+  "email": "",
   "mark": "中国党员",
   "mobile": "17358134575",
   "birth": "1998-01-12"
@@ -1500,7 +1500,7 @@
       <c r="J18" t="inlineStr">
         <is>
           <t>①按照备注栏中的测试数据传入参数,校验参数取值:
- mark=我是必填参数的非空校验
+ mark=
 ②对[新建学生信息]接口发送请求。</t>
         </is>
       </c>
@@ -1517,7 +1517,7 @@
   "sex": 1,
   "age": 20,
   "email": "zhangsan@qq.com",
-  "mark": "我是必填参数的非空校验",
+  "mark": "",
   "mobile": "17358134575",
   "birth": "1998-01-12"
 }</t>
@@ -1840,7 +1840,7 @@
       <c r="J23" t="inlineStr">
         <is>
           <t>①按照备注栏中的测试数据传入参数,校验参数取值:
- mark=我是选填参数的非空校验
+ mark=
 ②对[新建学生信息]接口发送请求。</t>
         </is>
       </c>
@@ -1857,7 +1857,7 @@
   "sex": 1,
   "age": 20,
   "email": "zhangsan@qq.com",
-  "mark": "我是选填参数的非空校验",
+  "mark": "",
   "mobile": "17358134575",
   "birth": "1998-01-12"
 }</t>
@@ -2180,7 +2180,7 @@
       <c r="J28" t="inlineStr">
         <is>
           <t>①按照备注栏中的测试数据传入参数,校验参数取值:
- mark=我是选填参数的非空校验
+ mark=
 ②对[新建学生信息]接口发送请求。</t>
         </is>
       </c>
@@ -2197,7 +2197,7 @@
   "sex": 1,
   "age": 20,
   "email": "zhangsan@qq.com",
-  "mark": "我是选填参数的非空校验",
+  "mark": "",
   "mobile": "17358134575",
   "birth": "1998-01-12"
 }</t>
@@ -2520,7 +2520,7 @@
       <c r="J33" t="inlineStr">
         <is>
           <t>①按照备注栏中的测试数据传入参数,校验参数取值:
- mark=我是选填参数的非空校验
+ mark=
 ②对[新建学生信息]接口发送请求。</t>
         </is>
       </c>
@@ -2537,7 +2537,7 @@
   "sex": 1,
   "age": 20,
   "email": "zhangsan@qq.com",
-  "mark": "我是选填参数的非空校验",
+  "mark": "",
   "mobile": "17358134575",
   "birth": "1998-01-12"
 }</t>

--- a/excel_file/case.xlsx
+++ b/excel_file/case.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -590,12 +590,12 @@
     <row r="5">
       <c r="E5" t="inlineStr">
         <is>
-          <t>验证[name]参数的长度为[31]个字符(最大边界+1)</t>
+          <t>验证[name]参数取值为[李四]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>post_create_student_name_str-max-bound-add1</t>
+          <t>post_create_student_name_is-array-exist-0</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -605,7 +605,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>level 2</t>
+          <t>level 0</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -616,20 +616,20 @@
       <c r="J5" t="inlineStr">
         <is>
           <t>①按照备注栏中的测试数据传入参数,校验参数取值:
- name=张三张三张三张三张三张三张三张三张三张三张三张三张三张三张张三
+ name=李四
 ②对[新建学生信息]接口发送请求。</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>①校验响应状态码:
+          <t>①校验响应状态码:200
 ②校验响应体:</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
           <t>{
-  "name": "张三张三张三张三张三张三张三张三张三张三张三张三张三张三张张三",
+  "name": "李四",
   "sex": 1,
   "age": 20,
   "email": "zhangsan@qq.com",
@@ -641,7 +641,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>非法请求</t>
+          <t>合法请求</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -658,12 +658,12 @@
     <row r="6">
       <c r="E6" t="inlineStr">
         <is>
-          <t>验证[name]参数的长度为[1]个字符(最小边界-1)</t>
+          <t>验证[name]参数取值为[王麻子]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>post_create_student_name_str-min-bound-sub1</t>
+          <t>post_create_student_name_is-array-exist-1</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -673,7 +673,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>level 1</t>
+          <t>level 0</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -684,20 +684,20 @@
       <c r="J6" t="inlineStr">
         <is>
           <t>①按照备注栏中的测试数据传入参数,校验参数取值:
- name=张
+ name=王麻子
 ②对[新建学生信息]接口发送请求。</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>①校验响应状态码:
+          <t>①校验响应状态码:200
 ②校验响应体:</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
           <t>{
-  "name": "张",
+  "name": "王麻子",
   "sex": 1,
   "age": 20,
   "email": "zhangsan@qq.com",
@@ -709,7 +709,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>非法请求</t>
+          <t>合法请求</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -726,12 +726,12 @@
     <row r="7">
       <c r="E7" t="inlineStr">
         <is>
-          <t>验证[name]参数的长度为[2]个字符(最小边界)</t>
+          <t>验证[name]参数值不在可选项数组[李四,王麻子]中</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>post_create_student_name_str-min-bound</t>
+          <t>post_create_student_name_is-array-inexist</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -741,7 +741,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>level 0</t>
+          <t>level 1</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -752,20 +752,20 @@
       <c r="J7" t="inlineStr">
         <is>
           <t>①按照备注栏中的测试数据传入参数,校验参数取值:
- name=张三
+ name=三张
 ②对[新建学生信息]接口发送请求。</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>①校验响应状态码:200
+          <t>①校验响应状态码:
 ②校验响应体:</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
           <t>{
-  "name": "张三",
+  "name": "三张",
   "sex": 1,
   "age": 20,
   "email": "zhangsan@qq.com",
@@ -777,7 +777,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>合法请求</t>
+          <t>非法请求</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -794,12 +794,12 @@
     <row r="8">
       <c r="E8" t="inlineStr">
         <is>
-          <t>验证[name]参数的长度为[30]个字符(最大边界)</t>
+          <t>验证选填参数[mark]的值为空</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>post_create_student_name_str-max-bound</t>
+          <t>post_create_student_mark_not-required-null</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -820,7 +820,7 @@
       <c r="J8" t="inlineStr">
         <is>
           <t>①按照备注栏中的测试数据传入参数,校验参数取值:
- name=张三张三张三张三张三张三张三张三张三张三张三张三张三张三张三
+ mark=
 ②对[新建学生信息]接口发送请求。</t>
         </is>
       </c>
@@ -833,11 +833,11 @@
       <c r="L8" t="inlineStr">
         <is>
           <t>{
-  "name": "张三张三张三张三张三张三张三张三张三张三张三张三张三张三张三",
+  "name": "张三",
   "sex": 1,
   "age": 20,
   "email": "zhangsan@qq.com",
-  "mark": "中国党员",
+  "mark": "",
   "mobile": "17358134575",
   "birth": "1998-01-12"
 }</t>
@@ -854,6 +854,278 @@
         </is>
       </c>
       <c r="O8" t="inlineStr">
+        <is>
+          <t>API</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>验证[mark]参数的长度为[11]个字符(最大边界+1)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>post_create_student_mark_str-max-bound-add1</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Beta</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>level 2</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>①[新建学生信息]接口服务已部署完成。</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>①按照备注栏中的测试数据传入参数,校验参数取值:
+ mark=中国党员中国党中国党员
+②对[新建学生信息]接口发送请求。</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>①校验响应状态码:
+②校验响应体:</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>{
+  "name": "张三",
+  "sex": 1,
+  "age": 20,
+  "email": "zhangsan@qq.com",
+  "mark": "中国党员中国党中国党员",
+  "mobile": "17358134575",
+  "birth": "1998-01-12"
+}</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>非法请求</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>接口功能测试</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>API</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>验证[mark]参数的长度为[1]个字符(最小边界-1)</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>post_create_student_mark_str-min-bound-sub1</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Beta</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>level 1</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>①[新建学生信息]接口服务已部署完成。</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>①按照备注栏中的测试数据传入参数,校验参数取值:
+ mark=中
+②对[新建学生信息]接口发送请求。</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>①校验响应状态码:
+②校验响应体:</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>{
+  "name": "张三",
+  "sex": 1,
+  "age": 20,
+  "email": "zhangsan@qq.com",
+  "mark": "中",
+  "mobile": "17358134575",
+  "birth": "1998-01-12"
+}</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>非法请求</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>接口功能测试</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>API</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>验证[mark]参数的长度为[2]个字符(最小边界)</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>post_create_student_mark_str-min-bound</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Beta</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>level 0</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>①[新建学生信息]接口服务已部署完成。</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>①按照备注栏中的测试数据传入参数,校验参数取值:
+ mark=中国
+②对[新建学生信息]接口发送请求。</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>①校验响应状态码:200
+②校验响应体:</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>{
+  "name": "张三",
+  "sex": 1,
+  "age": 20,
+  "email": "zhangsan@qq.com",
+  "mark": "中国",
+  "mobile": "17358134575",
+  "birth": "1998-01-12"
+}</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>合法请求</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>接口功能测试</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>API</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>验证[mark]参数的长度为[10]个字符(最大边界)</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>post_create_student_mark_str-max-bound</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Beta</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>level 0</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>①[新建学生信息]接口服务已部署完成。</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>①按照备注栏中的测试数据传入参数,校验参数取值:
+ mark=中国党员中国中国党员
+②对[新建学生信息]接口发送请求。</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>①校验响应状态码:200
+②校验响应体:</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>{
+  "name": "张三",
+  "sex": 1,
+  "age": 20,
+  "email": "zhangsan@qq.com",
+  "mark": "中国党员中国中国党员",
+  "mobile": "17358134575",
+  "birth": "1998-01-12"
+}</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>合法请求</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>接口功能测试</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
         <is>
           <t>API</t>
         </is>
